--- a/2022/회계/2022 오파츠 회계.xlsx
+++ b/2022/회계/2022 오파츠 회계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SandBox\ooparts-management\2022\회계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A9F9D1-69C9-4AA9-98CB-F11160EE4106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA04C60-0F47-4F5F-9D6C-40C530791A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2022.03.06</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>2022년도 회비</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -106,6 +102,10 @@
   </si>
   <si>
     <t>카카오톡 모임통장</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.03.09</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -232,12 +232,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="42" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="42" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="42" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="42" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="강조색1" xfId="4" builtinId="29"/>
@@ -556,7 +556,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -570,15 +570,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -588,18 +588,18 @@
     </row>
     <row r="2" spans="1:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -635,16 +635,16 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>1754576</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="4">
+      <c r="E6" s="5"/>
+      <c r="F6" s="3">
         <f>IF(ISNUMBER(F5),F5,0)+Sheet1!$D6-Sheet1!$E6</f>
         <v>1754576</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -652,157 +652,158 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="4">
+        <f>1480003</f>
+        <v>1480003</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3">
+        <f>IF(ISNUMBER(F6),F6,0)+Sheet1!$D7-Sheet1!$E7</f>
+        <v>3234579</v>
+      </c>
+      <c r="G7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4">
-        <f>IF(ISNUMBER(F6),F6,0)+Sheet1!$D7-Sheet1!$E7</f>
-        <v>1754576</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/2022/회계/2022 오파츠 회계.xlsx
+++ b/2022/회계/2022 오파츠 회계.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SandBox\ooparts-management\2022\회계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggogo\Documents\sandbox\ooparts\ooparts-management\2022\회계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA04C60-0F47-4F5F-9D6C-40C530791A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE05B28-A21B-4691-BF38-36B48A796E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>2022 오파츠 회계장부</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>집계중</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>계좌관리</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -106,6 +102,38 @@
   </si>
   <si>
     <t>2022.03.09</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.03.16</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>후원금</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>박준영</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>회비</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>장서현</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.03.26</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-9357-6719</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -273,8 +301,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7505CD17-B270-4E2E-B626-57942127B0D4}" name="표3" displayName="표3" ref="A5:G7" totalsRowShown="0" headerRowDxfId="3" headerRowCellStyle="강조색1">
-  <autoFilter ref="A5:G7" xr:uid="{7505CD17-B270-4E2E-B626-57942127B0D4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7505CD17-B270-4E2E-B626-57942127B0D4}" name="표3" displayName="표3" ref="A5:G10" totalsRowShown="0" headerRowDxfId="3" headerRowCellStyle="강조색1">
+  <autoFilter ref="A5:G10" xr:uid="{7505CD17-B270-4E2E-B626-57942127B0D4}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{C80D4331-BBC9-48EE-BF07-E3D4D2CDCBAF}" name="번호"/>
     <tableColumn id="2" xr3:uid="{B61E49B4-52B6-4155-9BE6-08C8DB6C0BC0}" name="시간"/>
@@ -556,20 +584,20 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="41.625" customWidth="1"/>
+    <col min="2" max="2" width="22.58203125" customWidth="1"/>
+    <col min="3" max="3" width="41.58203125" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="22.125" customWidth="1"/>
-    <col min="6" max="6" width="15.375" customWidth="1"/>
-    <col min="7" max="7" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="22.08203125" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -586,23 +614,26 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -625,7 +656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -644,15 +675,15 @@
         <v>1754576</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -666,141 +697,186 @@
         <f>IF(ISNUMBER(F6),F6,0)+Sheet1!$D7-Sheet1!$E7</f>
         <v>3234579</v>
       </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4">
+        <v>150000</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3">
+        <f>IF(ISNUMBER(F7),F7,0)+Sheet1!$D8-Sheet1!$E8</f>
+        <v>3384579</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4">
+        <v>30000</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3">
+        <f>IF(ISNUMBER(F8),F8,0)+Sheet1!$D9-Sheet1!$E9</f>
+        <v>3414579</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4">
+        <v>195</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3">
+        <f>IF(ISNUMBER(F9),F9,0)+Sheet1!$D10-Sheet1!$E10</f>
+        <v>3414774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
